--- a/biology/Histoire de la zoologie et de la botanique/Société_entomologique_de_France/Société_entomologique_de_France.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_entomologique_de_France/Société_entomologique_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_entomologique_de_France</t>
+          <t>Société_entomologique_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondée par dix-huit entomologistes parisiens le 29 février 1832, la Société entomologique de France est la plus ancienne association entomologique du monde.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_entomologique_de_France</t>
+          <t>Société_entomologique_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est Pierre André Latreille qui, élu à l’unanimité, en devient le premier président d'honneur, le premier président étant Jean Guillaume Audinet-Serville auquel succéderont Amédée Louis Michel Lepeletier comte de Saint-Fargeau et Victor Audouin. Elle se fixe le but de concourir aux progrès et au développement de l'entomologie dans tous ses aspects.
 Elle a été reconnue d'utilité publique le 23 août 1878.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_entomologique_de_France</t>
+          <t>Société_entomologique_de_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La société décerne plusieurs prix, dont le prix Constant, qui récompense le meilleur ouvrage sur les papillons ; le prix Gadeau-de-Kerville qui récompense le ou les auteur(s) français d'un travail imprimé ou en voie de publication concernant la biologie d'un groupe d'Arthropodes ; le prix Maurice-et-Thérèse-Pic, décerné à « un travail de systématique établi en vue de faciliter la détermination des espèces et variétés d'un groupe de Coléoptères ou d'Hyménoptères »... « de préférence attribué à un ouvrage tenant compte de la nomenclature des variétés »[1] ; le prix Réaumur décerné à un travail de biologie et le prix Passet à un ouvrage d'entomologie traitant des larves[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société décerne plusieurs prix, dont le prix Constant, qui récompense le meilleur ouvrage sur les papillons ; le prix Gadeau-de-Kerville qui récompense le ou les auteur(s) français d'un travail imprimé ou en voie de publication concernant la biologie d'un groupe d'Arthropodes ; le prix Maurice-et-Thérèse-Pic, décerné à « un travail de systématique établi en vue de faciliter la détermination des espèces et variétés d'un groupe de Coléoptères ou d'Hyménoptères »... « de préférence attribué à un ouvrage tenant compte de la nomenclature des variétés » ; le prix Réaumur décerné à un travail de biologie et le prix Passet à un ouvrage d'entomologie traitant des larves,.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_entomologique_de_France</t>
+          <t>Société_entomologique_de_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Listes sur la Société entomologique de France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste des présidents de la Société entomologique de France
 Liste des lauréats du prix Gadeau-de-Kerville de la Société entomologique de France
